--- a/res.xlsx
+++ b/res.xlsx
@@ -28,10 +28,10 @@
     <t>Market</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Peru</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
         <v>44927</v>
       </c>
       <c r="C2">
-        <v>19444</v>
+        <v>17468</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -438,7 +438,7 @@
         <v>45017</v>
       </c>
       <c r="C3">
-        <v>18872</v>
+        <v>23422</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -455,7 +455,7 @@
         <v>45108</v>
       </c>
       <c r="C4">
-        <v>17310</v>
+        <v>23008</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -472,7 +472,7 @@
         <v>45200</v>
       </c>
       <c r="C5">
-        <v>18231</v>
+        <v>22238</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>

--- a/res.xlsx
+++ b/res.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,36 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,96 +421,3508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle Classification</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Model family</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>South East Asia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Asia Pacific</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>People's Republic of China (mainland)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Greater China</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Central &amp; Eastern Europe</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Middle East</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Latin America</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>space1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>space2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Australia-r</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>India-r</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>South East Asia-r</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Japan-r</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Asia Pacific-r</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>South Korea-r</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>People's Republic of China (mainland)-r</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Greater China-r</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Central &amp; Eastern Europe-r</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Middle East-r</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>France-r</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Germany-r</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>UK-r</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Rest of Latin America-r</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Canada-r</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>United States-r</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C2">
-        <v>17468</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4444</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8888</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>123214</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12535</v>
+      </c>
+      <c r="P2" t="n">
+        <v>48366</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17034</v>
+      </c>
+      <c r="R2" t="n">
+        <v>89347</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1716</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6594</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2222</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3333</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4444</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5555</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6666</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7777</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8888</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>123214</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12535</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>48366</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17034</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>89347</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1716</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6594</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45017</v>
-      </c>
-      <c r="C3">
-        <v>23422</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Arteon/CC</t>
+        </is>
+      </c>
+      <c r="E3">
+        <f>IFERROR(ROUND(W$2*(W3/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>IFERROR(ROUND(X$2*(X3/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>IFERROR(ROUND(Y$2*(Y3/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>IFERROR(ROUND(Z$2*(Z3/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>IFERROR(ROUND(AA$2*(AA3/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>IFERROR(ROUND(AB$2*(AB3/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>IFERROR(ROUND(AC$2*(AC3/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L3">
+        <f>IFERROR(ROUND(AD$2*(AD3/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M3">
+        <f>IFERROR(ROUND(AE$2*(AE3/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N3">
+        <f>IFERROR(ROUND(AF$2*(AF3/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O3">
+        <f>IFERROR(ROUND(AG$2*(AG3/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P3">
+        <f>IFERROR(ROUND(AH$2*(AH3/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q3">
+        <f>IFERROR(ROUND(AI$2*(AI3/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R3">
+        <f>IFERROR(ROUND(AJ$2*(AJ3/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S3">
+        <f>IFERROR(ROUND(AK$2*(AK3/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>IFERROR(ROUND(AL$2*(AL3/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
+      <c r="X3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="AA3" s="2" t="inlineStr"/>
+      <c r="AB3" s="2" t="inlineStr"/>
+      <c r="AC3" s="2" t="inlineStr"/>
+      <c r="AD3" s="2" t="inlineStr"/>
+      <c r="AE3" s="2" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr"/>
+      <c r="AG3" s="2" t="inlineStr"/>
+      <c r="AH3" s="2" t="inlineStr"/>
+      <c r="AI3" s="2" t="inlineStr"/>
+      <c r="AJ3" s="2" t="inlineStr"/>
+      <c r="AK3" s="2" t="inlineStr"/>
+      <c r="AL3" s="2" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C4">
-        <v>23008</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bora/Lavida/Sagitar</t>
+        </is>
+      </c>
+      <c r="E4">
+        <f>IFERROR(ROUND(W$2*(W4/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>IFERROR(ROUND(X$2*(X4/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>IFERROR(ROUND(Y$2*(Y4/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>IFERROR(ROUND(Z$2*(Z4/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>IFERROR(ROUND(AA$2*(AA4/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>IFERROR(ROUND(AB$2*(AB4/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>IFERROR(ROUND(AC$2*(AC4/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L4">
+        <f>IFERROR(ROUND(AD$2*(AD4/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>IFERROR(ROUND(AE$2*(AE4/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N4">
+        <f>IFERROR(ROUND(AF$2*(AF4/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O4">
+        <f>IFERROR(ROUND(AG$2*(AG4/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>IFERROR(ROUND(AH$2*(AH4/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q4">
+        <f>IFERROR(ROUND(AI$2*(AI4/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R4">
+        <f>IFERROR(ROUND(AJ$2*(AJ4/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S4">
+        <f>IFERROR(ROUND(AK$2*(AK4/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>IFERROR(ROUND(AL$2*(AL4/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="AA4" s="2" t="inlineStr"/>
+      <c r="AB4" s="2" t="inlineStr"/>
+      <c r="AC4" s="2" t="inlineStr"/>
+      <c r="AD4" s="2" t="inlineStr"/>
+      <c r="AE4" s="2" t="inlineStr"/>
+      <c r="AF4" s="2" t="inlineStr"/>
+      <c r="AG4" s="2" t="inlineStr"/>
+      <c r="AH4" s="2" t="inlineStr"/>
+      <c r="AI4" s="2" t="inlineStr"/>
+      <c r="AJ4" s="2" t="inlineStr"/>
+      <c r="AK4" s="2" t="inlineStr"/>
+      <c r="AL4" s="2" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45200</v>
-      </c>
-      <c r="C5">
-        <v>22238</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Golf/Jetta</t>
+        </is>
+      </c>
+      <c r="E5">
+        <f>IFERROR(ROUND(W$2*(W5/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>IFERROR(ROUND(X$2*(X5/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>IFERROR(ROUND(Y$2*(Y5/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>IFERROR(ROUND(Z$2*(Z5/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>IFERROR(ROUND(AA$2*(AA5/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J5">
+        <f>IFERROR(ROUND(AB$2*(AB5/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K5">
+        <f>IFERROR(ROUND(AC$2*(AC5/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L5">
+        <f>IFERROR(ROUND(AD$2*(AD5/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M5">
+        <f>IFERROR(ROUND(AE$2*(AE5/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N5">
+        <f>IFERROR(ROUND(AF$2*(AF5/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O5">
+        <f>IFERROR(ROUND(AG$2*(AG5/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P5">
+        <f>IFERROR(ROUND(AH$2*(AH5/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q5">
+        <f>IFERROR(ROUND(AI$2*(AI5/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R5">
+        <f>IFERROR(ROUND(AJ$2*(AJ5/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S5">
+        <f>IFERROR(ROUND(AK$2*(AK5/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>IFERROR(ROUND(AL$2*(AL5/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
+      <c r="X5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="AA5" s="2" t="inlineStr"/>
+      <c r="AB5" s="2" t="inlineStr"/>
+      <c r="AC5" s="2" t="inlineStr"/>
+      <c r="AD5" s="2" t="inlineStr"/>
+      <c r="AE5" s="2" t="inlineStr"/>
+      <c r="AF5" s="2" t="inlineStr"/>
+      <c r="AG5" s="2" t="inlineStr"/>
+      <c r="AH5" s="2" t="inlineStr"/>
+      <c r="AI5" s="2" t="inlineStr"/>
+      <c r="AJ5" s="2" t="inlineStr"/>
+      <c r="AK5" s="2" t="inlineStr"/>
+      <c r="AL5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ID.3</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>IFERROR(ROUND(W$2*(W6/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>IFERROR(ROUND(X$2*(X6/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IFERROR(ROUND(Y$2*(Y6/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IFERROR(ROUND(Z$2*(Z6/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>IFERROR(ROUND(AA$2*(AA6/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>IFERROR(ROUND(AB$2*(AB6/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>IFERROR(ROUND(AC$2*(AC6/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L6">
+        <f>IFERROR(ROUND(AD$2*(AD6/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>IFERROR(ROUND(AE$2*(AE6/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N6">
+        <f>IFERROR(ROUND(AF$2*(AF6/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O6">
+        <f>IFERROR(ROUND(AG$2*(AG6/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P6">
+        <f>IFERROR(ROUND(AH$2*(AH6/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q6">
+        <f>IFERROR(ROUND(AI$2*(AI6/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R6">
+        <f>IFERROR(ROUND(AJ$2*(AJ6/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S6">
+        <f>IFERROR(ROUND(AK$2*(AK6/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>IFERROR(ROUND(AL$2*(AL6/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="inlineStr"/>
+      <c r="AB6" s="2" t="inlineStr"/>
+      <c r="AC6" s="2" t="inlineStr"/>
+      <c r="AD6" s="2" t="inlineStr"/>
+      <c r="AE6" s="2" t="inlineStr"/>
+      <c r="AF6" s="2" t="inlineStr"/>
+      <c r="AG6" s="2" t="inlineStr"/>
+      <c r="AH6" s="2" t="inlineStr"/>
+      <c r="AI6" s="2" t="inlineStr"/>
+      <c r="AJ6" s="2" t="inlineStr"/>
+      <c r="AK6" s="2" t="inlineStr"/>
+      <c r="AL6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Passat/Magotan</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>IFERROR(ROUND(W$2*(W7/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>IFERROR(ROUND(X$2*(X7/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>IFERROR(ROUND(Y$2*(Y7/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>IFERROR(ROUND(Z$2*(Z7/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>IFERROR(ROUND(AA$2*(AA7/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J7">
+        <f>IFERROR(ROUND(AB$2*(AB7/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>IFERROR(ROUND(AC$2*(AC7/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L7">
+        <f>IFERROR(ROUND(AD$2*(AD7/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M7">
+        <f>IFERROR(ROUND(AE$2*(AE7/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N7">
+        <f>IFERROR(ROUND(AF$2*(AF7/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O7">
+        <f>IFERROR(ROUND(AG$2*(AG7/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P7">
+        <f>IFERROR(ROUND(AH$2*(AH7/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q7">
+        <f>IFERROR(ROUND(AI$2*(AI7/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R7">
+        <f>IFERROR(ROUND(AJ$2*(AJ7/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S7">
+        <f>IFERROR(ROUND(AK$2*(AK7/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>IFERROR(ROUND(AL$2*(AL7/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
+      <c r="X7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="inlineStr"/>
+      <c r="Z7" s="2" t="inlineStr"/>
+      <c r="AA7" s="2" t="inlineStr"/>
+      <c r="AB7" s="2" t="inlineStr"/>
+      <c r="AC7" s="2" t="inlineStr"/>
+      <c r="AD7" s="2" t="inlineStr"/>
+      <c r="AE7" s="2" t="inlineStr"/>
+      <c r="AF7" s="2" t="inlineStr"/>
+      <c r="AG7" s="2" t="inlineStr"/>
+      <c r="AH7" s="2" t="inlineStr"/>
+      <c r="AI7" s="2" t="inlineStr"/>
+      <c r="AJ7" s="2" t="inlineStr"/>
+      <c r="AK7" s="2" t="inlineStr"/>
+      <c r="AL7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Phideon</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>IFERROR(ROUND(W$2*(W8/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F8">
+        <f>IFERROR(ROUND(X$2*(X8/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>IFERROR(ROUND(Y$2*(Y8/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>IFERROR(ROUND(Z$2*(Z8/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>IFERROR(ROUND(AA$2*(AA8/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>IFERROR(ROUND(AB$2*(AB8/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>IFERROR(ROUND(AC$2*(AC8/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L8">
+        <f>IFERROR(ROUND(AD$2*(AD8/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M8">
+        <f>IFERROR(ROUND(AE$2*(AE8/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N8">
+        <f>IFERROR(ROUND(AF$2*(AF8/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O8">
+        <f>IFERROR(ROUND(AG$2*(AG8/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P8">
+        <f>IFERROR(ROUND(AH$2*(AH8/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q8">
+        <f>IFERROR(ROUND(AI$2*(AI8/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R8">
+        <f>IFERROR(ROUND(AJ$2*(AJ8/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S8">
+        <f>IFERROR(ROUND(AK$2*(AK8/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>IFERROR(ROUND(AL$2*(AL8/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" s="2" t="inlineStr"/>
+      <c r="X8" s="2" t="inlineStr"/>
+      <c r="Y8" s="2" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="AA8" s="2" t="inlineStr"/>
+      <c r="AB8" s="2" t="inlineStr"/>
+      <c r="AC8" s="2" t="inlineStr"/>
+      <c r="AD8" s="2" t="inlineStr"/>
+      <c r="AE8" s="2" t="inlineStr"/>
+      <c r="AF8" s="2" t="inlineStr"/>
+      <c r="AG8" s="2" t="inlineStr"/>
+      <c r="AH8" s="2" t="inlineStr"/>
+      <c r="AI8" s="2" t="inlineStr"/>
+      <c r="AJ8" s="2" t="inlineStr"/>
+      <c r="AK8" s="2" t="inlineStr"/>
+      <c r="AL8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>IFERROR(ROUND(W$2*(W9/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F9">
+        <f>IFERROR(ROUND(X$2*(X9/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IFERROR(ROUND(Y$2*(Y9/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>IFERROR(ROUND(Z$2*(Z9/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>IFERROR(ROUND(AA$2*(AA9/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>IFERROR(ROUND(AB$2*(AB9/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>IFERROR(ROUND(AC$2*(AC9/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L9">
+        <f>IFERROR(ROUND(AD$2*(AD9/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M9">
+        <f>IFERROR(ROUND(AE$2*(AE9/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N9">
+        <f>IFERROR(ROUND(AF$2*(AF9/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O9">
+        <f>IFERROR(ROUND(AG$2*(AG9/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P9">
+        <f>IFERROR(ROUND(AH$2*(AH9/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q9">
+        <f>IFERROR(ROUND(AI$2*(AI9/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R9">
+        <f>IFERROR(ROUND(AJ$2*(AJ9/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S9">
+        <f>IFERROR(ROUND(AK$2*(AK9/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>IFERROR(ROUND(AL$2*(AL9/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" s="2" t="inlineStr"/>
+      <c r="X9" s="2" t="inlineStr"/>
+      <c r="Y9" s="2" t="inlineStr"/>
+      <c r="Z9" s="2" t="inlineStr"/>
+      <c r="AA9" s="2" t="inlineStr"/>
+      <c r="AB9" s="2" t="inlineStr"/>
+      <c r="AC9" s="2" t="inlineStr"/>
+      <c r="AD9" s="2" t="inlineStr"/>
+      <c r="AE9" s="2" t="inlineStr"/>
+      <c r="AF9" s="2" t="inlineStr"/>
+      <c r="AG9" s="2" t="inlineStr"/>
+      <c r="AH9" s="2" t="inlineStr"/>
+      <c r="AI9" s="2" t="inlineStr"/>
+      <c r="AJ9" s="2" t="inlineStr"/>
+      <c r="AK9" s="2" t="inlineStr"/>
+      <c r="AL9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Virtus/Vento/Santana</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>IFERROR(ROUND(W$2*(W10/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F10">
+        <f>IFERROR(ROUND(X$2*(X10/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>IFERROR(ROUND(Y$2*(Y10/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>IFERROR(ROUND(Z$2*(Z10/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>IFERROR(ROUND(AA$2*(AA10/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <f>IFERROR(ROUND(AB$2*(AB10/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>IFERROR(ROUND(AC$2*(AC10/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L10">
+        <f>IFERROR(ROUND(AD$2*(AD10/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M10">
+        <f>IFERROR(ROUND(AE$2*(AE10/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N10">
+        <f>IFERROR(ROUND(AF$2*(AF10/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O10">
+        <f>IFERROR(ROUND(AG$2*(AG10/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P10">
+        <f>IFERROR(ROUND(AH$2*(AH10/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q10">
+        <f>IFERROR(ROUND(AI$2*(AI10/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R10">
+        <f>IFERROR(ROUND(AJ$2*(AJ10/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S10">
+        <f>IFERROR(ROUND(AK$2*(AK10/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>IFERROR(ROUND(AL$2*(AL10/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
+      <c r="X10" s="2" t="inlineStr"/>
+      <c r="Y10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr"/>
+      <c r="AA10" s="2" t="inlineStr"/>
+      <c r="AB10" s="2" t="inlineStr"/>
+      <c r="AC10" s="2" t="inlineStr"/>
+      <c r="AD10" s="2" t="inlineStr"/>
+      <c r="AE10" s="2" t="inlineStr"/>
+      <c r="AF10" s="2" t="inlineStr"/>
+      <c r="AG10" s="2" t="inlineStr"/>
+      <c r="AH10" s="2" t="inlineStr"/>
+      <c r="AI10" s="2" t="inlineStr"/>
+      <c r="AJ10" s="2" t="inlineStr"/>
+      <c r="AK10" s="2" t="inlineStr"/>
+      <c r="AL10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Volkswage Car Others</t>
+        </is>
+      </c>
+      <c r="E11">
+        <f>IFERROR(ROUND(W$2*(W11/SUM(W$3:W$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>IFERROR(ROUND(X$2*(X11/SUM(X$3:X$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>IFERROR(ROUND(Y$2*(Y11/SUM(Y$3:Y$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>IFERROR(ROUND(Z$2*(Z11/SUM(Z$3:Z$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>IFERROR(ROUND(AA$2*(AA11/SUM(AA$3:AA$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J11">
+        <f>IFERROR(ROUND(AB$2*(AB11/SUM(AB$3:AB$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>IFERROR(ROUND(AC$2*(AC11/SUM(AC$3:AC$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L11">
+        <f>IFERROR(ROUND(AD$2*(AD11/SUM(AD$3:AD$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M11">
+        <f>IFERROR(ROUND(AE$2*(AE11/SUM(AE$3:AE$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N11">
+        <f>IFERROR(ROUND(AF$2*(AF11/SUM(AF$3:AF$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O11">
+        <f>IFERROR(ROUND(AG$2*(AG11/SUM(AG$3:AG$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P11">
+        <f>IFERROR(ROUND(AH$2*(AH11/SUM(AH$3:AH$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q11">
+        <f>IFERROR(ROUND(AI$2*(AI11/SUM(AI$3:AI$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R11">
+        <f>IFERROR(ROUND(AJ$2*(AJ11/SUM(AJ$3:AJ$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S11">
+        <f>IFERROR(ROUND(AK$2*(AK11/SUM(AK$3:AK$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>IFERROR(ROUND(AL$2*(AL11/SUM(AL$3:AL$12)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
+      <c r="X11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="inlineStr"/>
+      <c r="Z11" s="2" t="inlineStr"/>
+      <c r="AA11" s="2" t="inlineStr"/>
+      <c r="AB11" s="2" t="inlineStr"/>
+      <c r="AC11" s="2" t="inlineStr"/>
+      <c r="AD11" s="2" t="inlineStr"/>
+      <c r="AE11" s="2" t="inlineStr"/>
+      <c r="AF11" s="2" t="inlineStr"/>
+      <c r="AG11" s="2" t="inlineStr"/>
+      <c r="AH11" s="2" t="inlineStr"/>
+      <c r="AI11" s="2" t="inlineStr"/>
+      <c r="AJ11" s="2" t="inlineStr"/>
+      <c r="AK11" s="2" t="inlineStr"/>
+      <c r="AL11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>668</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5407</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>862</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>668</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5407</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>862</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ID.Buzz</t>
+        </is>
+      </c>
+      <c r="E14">
+        <f>IFERROR(ROUND(W$13*(W14/SUM(W$14:W$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>IFERROR(ROUND(X$13*(X14/SUM(X$14:X$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>IFERROR(ROUND(Y$13*(Y14/SUM(Y$14:Y$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>IFERROR(ROUND(Z$13*(Z14/SUM(Z$14:Z$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>IFERROR(ROUND(AA$13*(AA14/SUM(AA$14:AA$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>IFERROR(ROUND(AB$13*(AB14/SUM(AB$14:AB$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K14">
+        <f>IFERROR(ROUND(AC$13*(AC14/SUM(AC$14:AC$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <f>IFERROR(ROUND(AD$13*(AD14/SUM(AD$14:AD$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M14">
+        <f>IFERROR(ROUND(AE$13*(AE14/SUM(AE$14:AE$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <f>IFERROR(ROUND(AF$13*(AF14/SUM(AF$14:AF$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O14">
+        <f>IFERROR(ROUND(AG$13*(AG14/SUM(AG$14:AG$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P14">
+        <f>IFERROR(ROUND(AH$13*(AH14/SUM(AH$14:AH$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q14">
+        <f>IFERROR(ROUND(AI$13*(AI14/SUM(AI$14:AI$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R14">
+        <f>IFERROR(ROUND(AJ$13*(AJ14/SUM(AJ$14:AJ$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S14">
+        <f>IFERROR(ROUND(AK$13*(AK14/SUM(AK$14:AK$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>IFERROR(ROUND(AL$13*(AL14/SUM(AL$14:AL$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
+      <c r="X14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr"/>
+      <c r="AA14" s="2" t="inlineStr"/>
+      <c r="AB14" s="2" t="inlineStr"/>
+      <c r="AC14" s="2" t="inlineStr"/>
+      <c r="AD14" s="2" t="inlineStr"/>
+      <c r="AE14" s="2" t="inlineStr"/>
+      <c r="AF14" s="2" t="inlineStr"/>
+      <c r="AG14" s="2" t="inlineStr"/>
+      <c r="AH14" s="2" t="inlineStr"/>
+      <c r="AI14" s="2" t="inlineStr"/>
+      <c r="AJ14" s="2" t="inlineStr"/>
+      <c r="AK14" s="2" t="inlineStr"/>
+      <c r="AL14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Touran/Sharan</t>
+        </is>
+      </c>
+      <c r="E15">
+        <f>IFERROR(ROUND(W$13*(W15/SUM(W$14:W$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>IFERROR(ROUND(X$13*(X15/SUM(X$14:X$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>IFERROR(ROUND(Y$13*(Y15/SUM(Y$14:Y$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>IFERROR(ROUND(Z$13*(Z15/SUM(Z$14:Z$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>IFERROR(ROUND(AA$13*(AA15/SUM(AA$14:AA$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>IFERROR(ROUND(AB$13*(AB15/SUM(AB$14:AB$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>IFERROR(ROUND(AC$13*(AC15/SUM(AC$14:AC$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <f>IFERROR(ROUND(AD$13*(AD15/SUM(AD$14:AD$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M15">
+        <f>IFERROR(ROUND(AE$13*(AE15/SUM(AE$14:AE$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>IFERROR(ROUND(AF$13*(AF15/SUM(AF$14:AF$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O15">
+        <f>IFERROR(ROUND(AG$13*(AG15/SUM(AG$14:AG$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P15">
+        <f>IFERROR(ROUND(AH$13*(AH15/SUM(AH$14:AH$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q15">
+        <f>IFERROR(ROUND(AI$13*(AI15/SUM(AI$14:AI$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R15">
+        <f>IFERROR(ROUND(AJ$13*(AJ15/SUM(AJ$14:AJ$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S15">
+        <f>IFERROR(ROUND(AK$13*(AK15/SUM(AK$14:AK$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>IFERROR(ROUND(AL$13*(AL15/SUM(AL$14:AL$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr"/>
+      <c r="X15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr"/>
+      <c r="AA15" s="2" t="inlineStr"/>
+      <c r="AB15" s="2" t="inlineStr"/>
+      <c r="AC15" s="2" t="inlineStr"/>
+      <c r="AD15" s="2" t="inlineStr"/>
+      <c r="AE15" s="2" t="inlineStr"/>
+      <c r="AF15" s="2" t="inlineStr"/>
+      <c r="AG15" s="2" t="inlineStr"/>
+      <c r="AH15" s="2" t="inlineStr"/>
+      <c r="AI15" s="2" t="inlineStr"/>
+      <c r="AJ15" s="2" t="inlineStr"/>
+      <c r="AK15" s="2" t="inlineStr"/>
+      <c r="AL15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Viloran</t>
+        </is>
+      </c>
+      <c r="E16">
+        <f>IFERROR(ROUND(W$13*(W16/SUM(W$14:W$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>IFERROR(ROUND(X$13*(X16/SUM(X$14:X$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>IFERROR(ROUND(Y$13*(Y16/SUM(Y$14:Y$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>IFERROR(ROUND(Z$13*(Z16/SUM(Z$14:Z$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>IFERROR(ROUND(AA$13*(AA16/SUM(AA$14:AA$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>IFERROR(ROUND(AB$13*(AB16/SUM(AB$14:AB$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K16">
+        <f>IFERROR(ROUND(AC$13*(AC16/SUM(AC$14:AC$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <f>IFERROR(ROUND(AD$13*(AD16/SUM(AD$14:AD$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M16">
+        <f>IFERROR(ROUND(AE$13*(AE16/SUM(AE$14:AE$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N16">
+        <f>IFERROR(ROUND(AF$13*(AF16/SUM(AF$14:AF$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O16">
+        <f>IFERROR(ROUND(AG$13*(AG16/SUM(AG$14:AG$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P16">
+        <f>IFERROR(ROUND(AH$13*(AH16/SUM(AH$14:AH$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q16">
+        <f>IFERROR(ROUND(AI$13*(AI16/SUM(AI$14:AI$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R16">
+        <f>IFERROR(ROUND(AJ$13*(AJ16/SUM(AJ$14:AJ$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S16">
+        <f>IFERROR(ROUND(AK$13*(AK16/SUM(AK$14:AK$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>IFERROR(ROUND(AL$13*(AL16/SUM(AL$14:AL$17)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
+      <c r="X16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr"/>
+      <c r="AA16" s="2" t="inlineStr"/>
+      <c r="AB16" s="2" t="inlineStr"/>
+      <c r="AC16" s="2" t="inlineStr"/>
+      <c r="AD16" s="2" t="inlineStr"/>
+      <c r="AE16" s="2" t="inlineStr"/>
+      <c r="AF16" s="2" t="inlineStr"/>
+      <c r="AG16" s="2" t="inlineStr"/>
+      <c r="AH16" s="2" t="inlineStr"/>
+      <c r="AI16" s="2" t="inlineStr"/>
+      <c r="AJ16" s="2" t="inlineStr"/>
+      <c r="AK16" s="2" t="inlineStr"/>
+      <c r="AL16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Amarok</t>
+        </is>
+      </c>
+      <c r="E19">
+        <f>IFERROR(ROUND(W$18*(W19/SUM(W$19:W$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>IFERROR(ROUND(X$18*(X19/SUM(X$19:X$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>IFERROR(ROUND(Y$18*(Y19/SUM(Y$19:Y$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>IFERROR(ROUND(Z$18*(Z19/SUM(Z$19:Z$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>IFERROR(ROUND(AA$18*(AA19/SUM(AA$19:AA$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>IFERROR(ROUND(AB$18*(AB19/SUM(AB$19:AB$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K19">
+        <f>IFERROR(ROUND(AC$18*(AC19/SUM(AC$19:AC$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L19">
+        <f>IFERROR(ROUND(AD$18*(AD19/SUM(AD$19:AD$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M19">
+        <f>IFERROR(ROUND(AE$18*(AE19/SUM(AE$19:AE$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N19">
+        <f>IFERROR(ROUND(AF$18*(AF19/SUM(AF$19:AF$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O19">
+        <f>IFERROR(ROUND(AG$18*(AG19/SUM(AG$19:AG$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P19">
+        <f>IFERROR(ROUND(AH$18*(AH19/SUM(AH$19:AH$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q19">
+        <f>IFERROR(ROUND(AI$18*(AI19/SUM(AI$19:AI$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R19">
+        <f>IFERROR(ROUND(AJ$18*(AJ19/SUM(AJ$19:AJ$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S19">
+        <f>IFERROR(ROUND(AK$18*(AK19/SUM(AK$19:AK$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>IFERROR(ROUND(AL$18*(AL19/SUM(AL$19:AL$20)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
+      <c r="X19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="AA19" s="2" t="inlineStr"/>
+      <c r="AB19" s="2" t="inlineStr"/>
+      <c r="AC19" s="2" t="inlineStr"/>
+      <c r="AD19" s="2" t="inlineStr"/>
+      <c r="AE19" s="2" t="inlineStr"/>
+      <c r="AF19" s="2" t="inlineStr"/>
+      <c r="AG19" s="2" t="inlineStr"/>
+      <c r="AH19" s="2" t="inlineStr"/>
+      <c r="AI19" s="2" t="inlineStr"/>
+      <c r="AJ19" s="2" t="inlineStr"/>
+      <c r="AK19" s="2" t="inlineStr"/>
+      <c r="AL19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15634</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57782</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22592</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9291</v>
+      </c>
+      <c r="T21" t="n">
+        <v>61259</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15634</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>57782</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>22592</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>9291</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>61259</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ID.4/ID.5</t>
+        </is>
+      </c>
+      <c r="E22">
+        <f>IFERROR(ROUND(W$21*(W22/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>IFERROR(ROUND(X$21*(X22/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>IFERROR(ROUND(Y$21*(Y22/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>IFERROR(ROUND(Z$21*(Z22/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>IFERROR(ROUND(AA$21*(AA22/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>IFERROR(ROUND(AB$21*(AB22/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>IFERROR(ROUND(AC$21*(AC22/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>IFERROR(ROUND(AD$21*(AD22/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M22">
+        <f>IFERROR(ROUND(AE$21*(AE22/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>IFERROR(ROUND(AF$21*(AF22/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O22">
+        <f>IFERROR(ROUND(AG$21*(AG22/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P22">
+        <f>IFERROR(ROUND(AH$21*(AH22/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q22">
+        <f>IFERROR(ROUND(AI$21*(AI22/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R22">
+        <f>IFERROR(ROUND(AJ$21*(AJ22/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S22">
+        <f>IFERROR(ROUND(AK$21*(AK22/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>IFERROR(ROUND(AL$21*(AL22/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr"/>
+      <c r="X22" s="2" t="inlineStr"/>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
+      <c r="AA22" s="2" t="inlineStr"/>
+      <c r="AB22" s="2" t="inlineStr"/>
+      <c r="AC22" s="2" t="inlineStr"/>
+      <c r="AD22" s="2" t="inlineStr"/>
+      <c r="AE22" s="2" t="inlineStr"/>
+      <c r="AF22" s="2" t="inlineStr"/>
+      <c r="AG22" s="2" t="inlineStr"/>
+      <c r="AH22" s="2" t="inlineStr"/>
+      <c r="AI22" s="2" t="inlineStr"/>
+      <c r="AJ22" s="2" t="inlineStr"/>
+      <c r="AK22" s="2" t="inlineStr"/>
+      <c r="AL22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ID.6</t>
+        </is>
+      </c>
+      <c r="E23">
+        <f>IFERROR(ROUND(W$21*(W23/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>IFERROR(ROUND(X$21*(X23/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>IFERROR(ROUND(Y$21*(Y23/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>IFERROR(ROUND(Z$21*(Z23/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>IFERROR(ROUND(AA$21*(AA23/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>IFERROR(ROUND(AB$21*(AB23/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>IFERROR(ROUND(AC$21*(AC23/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>IFERROR(ROUND(AD$21*(AD23/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M23">
+        <f>IFERROR(ROUND(AE$21*(AE23/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>IFERROR(ROUND(AF$21*(AF23/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O23">
+        <f>IFERROR(ROUND(AG$21*(AG23/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P23">
+        <f>IFERROR(ROUND(AH$21*(AH23/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q23">
+        <f>IFERROR(ROUND(AI$21*(AI23/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R23">
+        <f>IFERROR(ROUND(AJ$21*(AJ23/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S23">
+        <f>IFERROR(ROUND(AK$21*(AK23/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>IFERROR(ROUND(AL$21*(AL23/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr"/>
+      <c r="X23" s="2" t="inlineStr"/>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
+      <c r="AA23" s="2" t="inlineStr"/>
+      <c r="AB23" s="2" t="inlineStr"/>
+      <c r="AC23" s="2" t="inlineStr"/>
+      <c r="AD23" s="2" t="inlineStr"/>
+      <c r="AE23" s="2" t="inlineStr"/>
+      <c r="AF23" s="2" t="inlineStr"/>
+      <c r="AG23" s="2" t="inlineStr"/>
+      <c r="AH23" s="2" t="inlineStr"/>
+      <c r="AI23" s="2" t="inlineStr"/>
+      <c r="AJ23" s="2" t="inlineStr"/>
+      <c r="AK23" s="2" t="inlineStr"/>
+      <c r="AL23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T-Cross/Tacqua/Taigun/Taigo</t>
+        </is>
+      </c>
+      <c r="E24">
+        <f>IFERROR(ROUND(W$21*(W24/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>IFERROR(ROUND(X$21*(X24/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>IFERROR(ROUND(Y$21*(Y24/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>IFERROR(ROUND(Z$21*(Z24/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I24">
+        <f>IFERROR(ROUND(AA$21*(AA24/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J24">
+        <f>IFERROR(ROUND(AB$21*(AB24/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K24">
+        <f>IFERROR(ROUND(AC$21*(AC24/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <f>IFERROR(ROUND(AD$21*(AD24/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M24">
+        <f>IFERROR(ROUND(AE$21*(AE24/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N24">
+        <f>IFERROR(ROUND(AF$21*(AF24/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O24">
+        <f>IFERROR(ROUND(AG$21*(AG24/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P24">
+        <f>IFERROR(ROUND(AH$21*(AH24/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q24">
+        <f>IFERROR(ROUND(AI$21*(AI24/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R24">
+        <f>IFERROR(ROUND(AJ$21*(AJ24/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S24">
+        <f>IFERROR(ROUND(AK$21*(AK24/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>IFERROR(ROUND(AL$21*(AL24/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
+      <c r="X24" s="2" t="inlineStr"/>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="AA24" s="2" t="inlineStr"/>
+      <c r="AB24" s="2" t="inlineStr"/>
+      <c r="AC24" s="2" t="inlineStr"/>
+      <c r="AD24" s="2" t="inlineStr"/>
+      <c r="AE24" s="2" t="inlineStr"/>
+      <c r="AF24" s="2" t="inlineStr"/>
+      <c r="AG24" s="2" t="inlineStr"/>
+      <c r="AH24" s="2" t="inlineStr"/>
+      <c r="AI24" s="2" t="inlineStr"/>
+      <c r="AJ24" s="2" t="inlineStr"/>
+      <c r="AK24" s="2" t="inlineStr"/>
+      <c r="AL24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Taos/Tharu</t>
+        </is>
+      </c>
+      <c r="E25">
+        <f>IFERROR(ROUND(W$21*(W25/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>IFERROR(ROUND(X$21*(X25/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>IFERROR(ROUND(Y$21*(Y25/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>IFERROR(ROUND(Z$21*(Z25/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I25">
+        <f>IFERROR(ROUND(AA$21*(AA25/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>IFERROR(ROUND(AB$21*(AB25/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K25">
+        <f>IFERROR(ROUND(AC$21*(AC25/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L25">
+        <f>IFERROR(ROUND(AD$21*(AD25/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M25">
+        <f>IFERROR(ROUND(AE$21*(AE25/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N25">
+        <f>IFERROR(ROUND(AF$21*(AF25/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O25">
+        <f>IFERROR(ROUND(AG$21*(AG25/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P25">
+        <f>IFERROR(ROUND(AH$21*(AH25/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q25">
+        <f>IFERROR(ROUND(AI$21*(AI25/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R25">
+        <f>IFERROR(ROUND(AJ$21*(AJ25/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S25">
+        <f>IFERROR(ROUND(AK$21*(AK25/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>IFERROR(ROUND(AL$21*(AL25/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
+      <c r="X25" s="2" t="inlineStr"/>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
+      <c r="AA25" s="2" t="inlineStr"/>
+      <c r="AB25" s="2" t="inlineStr"/>
+      <c r="AC25" s="2" t="inlineStr"/>
+      <c r="AD25" s="2" t="inlineStr"/>
+      <c r="AE25" s="2" t="inlineStr"/>
+      <c r="AF25" s="2" t="inlineStr"/>
+      <c r="AG25" s="2" t="inlineStr"/>
+      <c r="AH25" s="2" t="inlineStr"/>
+      <c r="AI25" s="2" t="inlineStr"/>
+      <c r="AJ25" s="2" t="inlineStr"/>
+      <c r="AK25" s="2" t="inlineStr"/>
+      <c r="AL25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Teramont/Atlas/Talagon/Tavendor</t>
+        </is>
+      </c>
+      <c r="E26">
+        <f>IFERROR(ROUND(W$21*(W26/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>IFERROR(ROUND(X$21*(X26/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>IFERROR(ROUND(Y$21*(Y26/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>IFERROR(ROUND(Z$21*(Z26/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I26">
+        <f>IFERROR(ROUND(AA$21*(AA26/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J26">
+        <f>IFERROR(ROUND(AB$21*(AB26/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K26">
+        <f>IFERROR(ROUND(AC$21*(AC26/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <f>IFERROR(ROUND(AD$21*(AD26/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M26">
+        <f>IFERROR(ROUND(AE$21*(AE26/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N26">
+        <f>IFERROR(ROUND(AF$21*(AF26/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O26">
+        <f>IFERROR(ROUND(AG$21*(AG26/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P26">
+        <f>IFERROR(ROUND(AH$21*(AH26/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q26">
+        <f>IFERROR(ROUND(AI$21*(AI26/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R26">
+        <f>IFERROR(ROUND(AJ$21*(AJ26/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S26">
+        <f>IFERROR(ROUND(AK$21*(AK26/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>IFERROR(ROUND(AL$21*(AL26/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr"/>
+      <c r="X26" s="2" t="inlineStr"/>
+      <c r="Y26" s="2" t="inlineStr"/>
+      <c r="Z26" s="2" t="inlineStr"/>
+      <c r="AA26" s="2" t="inlineStr"/>
+      <c r="AB26" s="2" t="inlineStr"/>
+      <c r="AC26" s="2" t="inlineStr"/>
+      <c r="AD26" s="2" t="inlineStr"/>
+      <c r="AE26" s="2" t="inlineStr"/>
+      <c r="AF26" s="2" t="inlineStr"/>
+      <c r="AG26" s="2" t="inlineStr"/>
+      <c r="AH26" s="2" t="inlineStr"/>
+      <c r="AI26" s="2" t="inlineStr"/>
+      <c r="AJ26" s="2" t="inlineStr"/>
+      <c r="AK26" s="2" t="inlineStr"/>
+      <c r="AL26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tiguan/Tayron</t>
+        </is>
+      </c>
+      <c r="E27">
+        <f>IFERROR(ROUND(W$21*(W27/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>IFERROR(ROUND(X$21*(X27/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>IFERROR(ROUND(Y$21*(Y27/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>IFERROR(ROUND(Z$21*(Z27/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I27">
+        <f>IFERROR(ROUND(AA$21*(AA27/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J27">
+        <f>IFERROR(ROUND(AB$21*(AB27/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K27">
+        <f>IFERROR(ROUND(AC$21*(AC27/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L27">
+        <f>IFERROR(ROUND(AD$21*(AD27/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M27">
+        <f>IFERROR(ROUND(AE$21*(AE27/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N27">
+        <f>IFERROR(ROUND(AF$21*(AF27/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O27">
+        <f>IFERROR(ROUND(AG$21*(AG27/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P27">
+        <f>IFERROR(ROUND(AH$21*(AH27/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q27">
+        <f>IFERROR(ROUND(AI$21*(AI27/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R27">
+        <f>IFERROR(ROUND(AJ$21*(AJ27/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S27">
+        <f>IFERROR(ROUND(AK$21*(AK27/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>IFERROR(ROUND(AL$21*(AL27/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr"/>
+      <c r="X27" s="2" t="inlineStr"/>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
+      <c r="AA27" s="2" t="inlineStr"/>
+      <c r="AB27" s="2" t="inlineStr"/>
+      <c r="AC27" s="2" t="inlineStr"/>
+      <c r="AD27" s="2" t="inlineStr"/>
+      <c r="AE27" s="2" t="inlineStr"/>
+      <c r="AF27" s="2" t="inlineStr"/>
+      <c r="AG27" s="2" t="inlineStr"/>
+      <c r="AH27" s="2" t="inlineStr"/>
+      <c r="AI27" s="2" t="inlineStr"/>
+      <c r="AJ27" s="2" t="inlineStr"/>
+      <c r="AK27" s="2" t="inlineStr"/>
+      <c r="AL27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Volkswagen Group</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SUV/Crossover</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Touareg</t>
+        </is>
+      </c>
+      <c r="E28">
+        <f>IFERROR(ROUND(W$21*(W28/SUM(W$22:W$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>IFERROR(ROUND(X$21*(X28/SUM(X$22:X$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>IFERROR(ROUND(Y$21*(Y28/SUM(Y$22:Y$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>IFERROR(ROUND(Z$21*(Z28/SUM(Z$22:Z$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>IFERROR(ROUND(AA$21*(AA28/SUM(AA$22:AA$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>IFERROR(ROUND(AB$21*(AB28/SUM(AB$22:AB$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="K28">
+        <f>IFERROR(ROUND(AC$21*(AC28/SUM(AC$22:AC$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="L28">
+        <f>IFERROR(ROUND(AD$21*(AD28/SUM(AD$22:AD$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="M28">
+        <f>IFERROR(ROUND(AE$21*(AE28/SUM(AE$22:AE$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="N28">
+        <f>IFERROR(ROUND(AF$21*(AF28/SUM(AF$22:AF$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="O28">
+        <f>IFERROR(ROUND(AG$21*(AG28/SUM(AG$22:AG$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="P28">
+        <f>IFERROR(ROUND(AH$21*(AH28/SUM(AH$22:AH$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="Q28">
+        <f>IFERROR(ROUND(AI$21*(AI28/SUM(AI$22:AI$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="R28">
+        <f>IFERROR(ROUND(AJ$21*(AJ28/SUM(AJ$22:AJ$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="S28">
+        <f>IFERROR(ROUND(AK$21*(AK28/SUM(AK$22:AK$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>IFERROR(ROUND(AL$21*(AL28/SUM(AL$22:AL$29)),0),0)</f>
+        <v/>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr"/>
+      <c r="X28" s="2" t="inlineStr"/>
+      <c r="Y28" s="2" t="inlineStr"/>
+      <c r="Z28" s="2" t="inlineStr"/>
+      <c r="AA28" s="2" t="inlineStr"/>
+      <c r="AB28" s="2" t="inlineStr"/>
+      <c r="AC28" s="2" t="inlineStr"/>
+      <c r="AD28" s="2" t="inlineStr"/>
+      <c r="AE28" s="2" t="inlineStr"/>
+      <c r="AF28" s="2" t="inlineStr"/>
+      <c r="AG28" s="2" t="inlineStr"/>
+      <c r="AH28" s="2" t="inlineStr"/>
+      <c r="AI28" s="2" t="inlineStr"/>
+      <c r="AJ28" s="2" t="inlineStr"/>
+      <c r="AK28" s="2" t="inlineStr"/>
+      <c r="AL28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="W3:W12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK3:AK12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3:AL12">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14:W17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14:X17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:Y17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:Z17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AA17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AB17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14:AC17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14:AD17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14:AE17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AF17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14:AG17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AH17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AI17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14:AJ17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14:AK17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14:AL17">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19:W20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19:X20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19:Y20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:Z20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA19:AA20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB19:AB20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19:AC20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19:AD20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE19:AE20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF19:AF20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19:AG20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19:AH20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19:AI20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ19:AJ20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19:AK20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL19:AL20">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22:W29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22:X29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22:Y29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA22:AA29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22:AB29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22:AC29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22:AD29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22:AE29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22:AF29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22:AG29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22:AH29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22:AI29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22:AJ29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22:AK29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22:AL29">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/res.xlsx
+++ b/res.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,19 +53,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3348,7 +3348,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W3:W12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3357,7 +3357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3366,7 +3366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3375,7 +3375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3384,7 +3384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3393,7 +3393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3402,7 +3402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3411,7 +3411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3420,7 +3420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3429,7 +3429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3438,7 +3438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3447,7 +3447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3456,7 +3456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3465,7 +3465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3474,7 +3474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3483,7 +3483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL12">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3492,7 +3492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:W17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3501,7 +3501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:X17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3510,7 +3510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:Y17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3519,7 +3519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3528,7 +3528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14:AA17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3537,7 +3537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AB17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3546,7 +3546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14:AC17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3555,7 +3555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AD17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3564,7 +3564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14:AE17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3573,7 +3573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AF17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3582,7 +3582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AG17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3591,7 +3591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AH17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3600,7 +3600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AI17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3609,7 +3609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3618,7 +3618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14:AK17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3627,7 +3627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL14:AL17">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3636,7 +3636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19:W20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3645,7 +3645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:X20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3654,7 +3654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19:Y20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3663,7 +3663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19:Z20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3672,7 +3672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:AA20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3681,7 +3681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB19:AB20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3690,7 +3690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AC20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3699,7 +3699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AD20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3708,7 +3708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19:AE20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3717,7 +3717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF19:AF20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3726,7 +3726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:AG20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3735,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19:AH20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3744,7 +3744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19:AI20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3753,7 +3753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3762,7 +3762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19:AK20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3771,7 +3771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL19:AL20">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3780,7 +3780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:W29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3789,7 +3789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:X29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3798,7 +3798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22:Y29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3807,7 +3807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22:Z29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3816,7 +3816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3825,7 +3825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22:AB29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3834,7 +3834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22:AC29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3843,7 +3843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD22:AD29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3852,7 +3852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3861,7 +3861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22:AF29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3870,7 +3870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22:AG29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3879,7 +3879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH22:AH29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3888,7 +3888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AI29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3897,7 +3897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3906,7 +3906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AK29">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3915,14 +3915,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22:AL29">
-    <cfRule priority="1" type="dataBar">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00BDB76B"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00BDB76B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>